--- a/Halfman_Systems SerologyP1_100121 PH.xlsx
+++ b/Halfman_Systems SerologyP1_100121 PH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skulkarni/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skulkarni/Desktop/git/hamster_S2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244EE19B-E762-364C-9C77-4CFF650DF15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81677CE9-0FB9-174F-AD76-CC629A35E5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="2060" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2060" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Halfman_Systems SerologyP1_1001" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>Sample</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Beta challenge</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Treatment</t>
   </si>
 </sst>
 </file>
@@ -755,10 +761,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,13 +1136,13 @@
   <dimension ref="A1:BG17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
@@ -1153,7 +1158,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1329,175 +1340,175 @@
       <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>2599.75</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2890.5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>3013.5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>13152.5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>2614</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>2585.75</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>2500.5</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>9750.25</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>56965.75</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>7738.5</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>561206.25</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>13978.75</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>3238</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>3166.5</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>3902.5</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <v>191236.75</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
         <v>4357.25</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <v>4005.5</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <v>4800.5</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="3">
         <v>134589.5</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="3">
         <v>2755.5</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="3">
         <v>2420.25</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="3">
         <v>2868.75</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="3">
         <v>166065.5</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="3">
         <v>3354.5</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="3">
         <v>2420.25</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="3">
         <v>2579</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="3">
         <v>112837.25</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="3">
         <v>2706</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="3">
         <v>2396.75</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="3">
         <v>4223</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="3">
         <v>134483</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="3">
         <v>5617.5</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="3">
         <v>9369.25</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="3">
         <v>10602.5</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AM2" s="3">
         <v>613116.5</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AN2" s="3">
         <v>983792.5</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="3">
         <v>710800</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AP2" s="3">
         <v>125978.75</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AQ2" s="3">
         <v>76509</v>
       </c>
-      <c r="AR2" s="4">
+      <c r="AR2" s="3">
         <v>438398.75</v>
       </c>
-      <c r="AS2" s="4">
+      <c r="AS2" s="3">
         <v>3730.5</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AT2" s="3">
         <v>3756.5</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="AU2" s="3">
         <v>4284.75</v>
       </c>
-      <c r="AV2" s="4">
+      <c r="AV2" s="3">
         <v>4710.75</v>
       </c>
-      <c r="AW2" s="4">
+      <c r="AW2" s="3">
         <v>4915.5</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AX2" s="3">
         <v>5890</v>
       </c>
-      <c r="AY2" s="4">
+      <c r="AY2" s="3">
         <v>2974.5</v>
       </c>
-      <c r="AZ2" s="4">
+      <c r="AZ2" s="3">
         <v>3233</v>
       </c>
-      <c r="BA2" s="4">
+      <c r="BA2" s="3">
         <v>3624</v>
       </c>
-      <c r="BB2" s="4">
+      <c r="BB2" s="3">
         <v>6867.25</v>
       </c>
-      <c r="BC2" s="4">
+      <c r="BC2" s="3">
         <v>10282.5</v>
       </c>
-      <c r="BD2" s="4">
+      <c r="BD2" s="3">
         <v>9768.5</v>
       </c>
-      <c r="BE2" s="4">
+      <c r="BE2" s="3">
         <v>3131</v>
       </c>
-      <c r="BF2" s="4">
+      <c r="BF2" s="3">
         <v>3363.25</v>
       </c>
-      <c r="BG2" s="4">
+      <c r="BG2" s="3">
         <v>4035.5</v>
       </c>
     </row>
@@ -1505,175 +1516,175 @@
       <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2980</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2926</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>2775.25</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>20196.5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2531.5</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>2811.75</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>2626</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>12019.75</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>56882.75</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>8927.25</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>279836.5</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>36810.75</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>3233.5</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>3443.25</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>3832.25</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>127128</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>4033.75</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>3888</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>4285.25</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>72588.75</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="3">
         <v>2742</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="3">
         <v>2828</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="3">
         <v>2771</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="3">
         <v>98106</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3" s="3">
         <v>2802</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="3">
         <v>2399</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="3">
         <v>2776</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="3">
         <v>85407.25</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="3">
         <v>2786.25</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="3">
         <v>2822.5</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="3">
         <v>3479.5</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="3">
         <v>84070.75</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ3" s="3">
         <v>5308</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK3" s="3">
         <v>13633</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AL3" s="3">
         <v>8150</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AM3" s="3">
         <v>619594</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AN3" s="3">
         <v>1288096.5</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AO3" s="3">
         <v>683735.5</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AP3" s="3">
         <v>108992.5</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="AQ3" s="3">
         <v>112321</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="AR3" s="3">
         <v>384973.75</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="AS3" s="3">
         <v>3311.25</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="AT3" s="3">
         <v>7984.5</v>
       </c>
-      <c r="AU3" s="4">
+      <c r="AU3" s="3">
         <v>4243.5</v>
       </c>
-      <c r="AV3" s="4">
+      <c r="AV3" s="3">
         <v>4759</v>
       </c>
-      <c r="AW3" s="4">
+      <c r="AW3" s="3">
         <v>7158.75</v>
       </c>
-      <c r="AX3" s="4">
+      <c r="AX3" s="3">
         <v>5262.5</v>
       </c>
-      <c r="AY3" s="4">
+      <c r="AY3" s="3">
         <v>2839</v>
       </c>
-      <c r="AZ3" s="4">
+      <c r="AZ3" s="3">
         <v>6382.75</v>
       </c>
-      <c r="BA3" s="4">
+      <c r="BA3" s="3">
         <v>3573.25</v>
       </c>
-      <c r="BB3" s="4">
+      <c r="BB3" s="3">
         <v>5603.5</v>
       </c>
-      <c r="BC3" s="4">
+      <c r="BC3" s="3">
         <v>26055.75</v>
       </c>
-      <c r="BD3" s="4">
+      <c r="BD3" s="3">
         <v>10309.25</v>
       </c>
-      <c r="BE3" s="4">
+      <c r="BE3" s="3">
         <v>2939</v>
       </c>
-      <c r="BF3" s="4">
+      <c r="BF3" s="3">
         <v>5747.75</v>
       </c>
-      <c r="BG3" s="4">
+      <c r="BG3" s="3">
         <v>3905</v>
       </c>
     </row>
@@ -1681,175 +1692,175 @@
       <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2472.75</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>2849</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2788.75</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>13125</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2596</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>2668.5</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>2580</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>5987.5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>56404</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>7627.5</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>445538.5</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>10922.5</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>3425.5</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>3168.25</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>3720.75</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>234135</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>4236</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>4234</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>4626.5</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>122704</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="3">
         <v>2807</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="3">
         <v>2510.25</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="3">
         <v>2793</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="3">
         <v>118983.5</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4" s="3">
         <v>3133.5</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="3">
         <v>2872.5</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="3">
         <v>5631.75</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4" s="3">
         <v>91072</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="3">
         <v>2999.25</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AG4" s="3">
         <v>2271.75</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AH4" s="3">
         <v>4225.5</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="3">
         <v>129008</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AJ4" s="3">
         <v>4941.75</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="3">
         <v>7841.5</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AL4" s="3">
         <v>8103.5</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AM4" s="3">
         <v>605791</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AN4" s="3">
         <v>932301.5</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="3">
         <v>688578.5</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AP4" s="3">
         <v>117899.25</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AQ4" s="3">
         <v>51474.75</v>
       </c>
-      <c r="AR4" s="4">
+      <c r="AR4" s="3">
         <v>395498.75</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AS4" s="3">
         <v>3745.25</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AT4" s="3">
         <v>3533</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AU4" s="3">
         <v>4237.5</v>
       </c>
-      <c r="AV4" s="4">
+      <c r="AV4" s="3">
         <v>5001</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AW4" s="3">
         <v>4788.5</v>
       </c>
-      <c r="AX4" s="4">
+      <c r="AX4" s="3">
         <v>5530.25</v>
       </c>
-      <c r="AY4" s="4">
+      <c r="AY4" s="3">
         <v>3049.25</v>
       </c>
-      <c r="AZ4" s="4">
+      <c r="AZ4" s="3">
         <v>3613</v>
       </c>
-      <c r="BA4" s="4">
+      <c r="BA4" s="3">
         <v>3471.75</v>
       </c>
-      <c r="BB4" s="4">
+      <c r="BB4" s="3">
         <v>8318.5</v>
       </c>
-      <c r="BC4" s="4">
+      <c r="BC4" s="3">
         <v>13391</v>
       </c>
-      <c r="BD4" s="4">
+      <c r="BD4" s="3">
         <v>19024.5</v>
       </c>
-      <c r="BE4" s="4">
+      <c r="BE4" s="3">
         <v>3054.25</v>
       </c>
-      <c r="BF4" s="4">
+      <c r="BF4" s="3">
         <v>2966.75</v>
       </c>
-      <c r="BG4" s="4">
+      <c r="BG4" s="3">
         <v>3722.75</v>
       </c>
     </row>
@@ -1857,175 +1868,175 @@
       <c r="B5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3097.75</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>2878.5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>2657.5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>10728.5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2524.75</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>2558.5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>2523</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>6329.5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>56554.75</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>6614.5</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>922947.25</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>9570.5</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>4261</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>4308.5</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>3899</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>155277.75</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>4617.5</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>4773.75</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>4788.5</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>96314</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="3">
         <v>3697</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="3">
         <v>3784.5</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="3">
         <v>3193</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="3">
         <v>105501.5</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="3">
         <v>2760.75</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="3">
         <v>2781</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="3">
         <v>3022.75</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="3">
         <v>78592</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="3">
         <v>3613</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="3">
         <v>3059</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="3">
         <v>9838.75</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="3">
         <v>105658</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ5" s="3">
         <v>6365</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AK5" s="3">
         <v>6663.5</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AL5" s="3">
         <v>8797.5</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AM5" s="3">
         <v>616942.25</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN5" s="3">
         <v>867497</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AO5" s="3">
         <v>663517.75</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AP5" s="3">
         <v>112616.25</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AQ5" s="3">
         <v>55183.75</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AR5" s="3">
         <v>386799</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AS5" s="3">
         <v>8293</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AT5" s="3">
         <v>4065.25</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AU5" s="3">
         <v>4589.75</v>
       </c>
-      <c r="AV5" s="4">
+      <c r="AV5" s="3">
         <v>8388.75</v>
       </c>
-      <c r="AW5" s="4">
+      <c r="AW5" s="3">
         <v>5290.5</v>
       </c>
-      <c r="AX5" s="4">
+      <c r="AX5" s="3">
         <v>5533.5</v>
       </c>
-      <c r="AY5" s="4">
+      <c r="AY5" s="3">
         <v>8887.25</v>
       </c>
-      <c r="AZ5" s="4">
+      <c r="AZ5" s="3">
         <v>3147</v>
       </c>
-      <c r="BA5" s="4">
+      <c r="BA5" s="3">
         <v>3542.5</v>
       </c>
-      <c r="BB5" s="4">
+      <c r="BB5" s="3">
         <v>5484.5</v>
       </c>
-      <c r="BC5" s="4">
+      <c r="BC5" s="3">
         <v>10487</v>
       </c>
-      <c r="BD5" s="4">
+      <c r="BD5" s="3">
         <v>9826.5</v>
       </c>
-      <c r="BE5" s="4">
+      <c r="BE5" s="3">
         <v>7000.5</v>
       </c>
-      <c r="BF5" s="4">
+      <c r="BF5" s="3">
         <v>3125.5</v>
       </c>
-      <c r="BG5" s="4">
+      <c r="BG5" s="3">
         <v>3812</v>
       </c>
     </row>
@@ -2033,175 +2044,175 @@
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2827</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>2928.75</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>2607</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>19816.25</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2504</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>2436.5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>2477.75</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>15047.5</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>57080</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>7504</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>491389.5</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>51839.25</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>3243</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>3032.5</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>3406</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <v>164150</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>4258</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>3871.25</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>4646.5</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <v>109145</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="3">
         <v>2672.5</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="3">
         <v>2493.25</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="3">
         <v>2747.5</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="3">
         <v>144018.25</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="3">
         <v>2885.25</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="3">
         <v>2317.75</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="3">
         <v>2365.25</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6" s="3">
         <v>74197.25</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="3">
         <v>2732.25</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="3">
         <v>2443.5</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="3">
         <v>3868.75</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI6" s="3">
         <v>124136</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AJ6" s="3">
         <v>5465.5</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="3">
         <v>5389.5</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL6" s="3">
         <v>6749.5</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AM6" s="3">
         <v>598659.75</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN6" s="3">
         <v>920119</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO6" s="3">
         <v>681399.5</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AP6" s="3">
         <v>109291.25</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AQ6" s="3">
         <v>56115.5</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AR6" s="3">
         <v>394217</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AS6" s="3">
         <v>3646.5</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT6" s="3">
         <v>3443.75</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AU6" s="3">
         <v>4061.5</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AV6" s="3">
         <v>4589.5</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="AW6" s="3">
         <v>4610.25</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AX6" s="3">
         <v>5452</v>
       </c>
-      <c r="AY6" s="4">
+      <c r="AY6" s="3">
         <v>2941</v>
       </c>
-      <c r="AZ6" s="4">
+      <c r="AZ6" s="3">
         <v>2791.25</v>
       </c>
-      <c r="BA6" s="4">
+      <c r="BA6" s="3">
         <v>3285</v>
       </c>
-      <c r="BB6" s="4">
+      <c r="BB6" s="3">
         <v>5307</v>
       </c>
-      <c r="BC6" s="4">
+      <c r="BC6" s="3">
         <v>7302.25</v>
       </c>
-      <c r="BD6" s="4">
+      <c r="BD6" s="3">
         <v>9410.25</v>
       </c>
-      <c r="BE6" s="4">
+      <c r="BE6" s="3">
         <v>3057</v>
       </c>
-      <c r="BF6" s="4">
+      <c r="BF6" s="3">
         <v>2891.5</v>
       </c>
-      <c r="BG6" s="4">
+      <c r="BG6" s="3">
         <v>3519.75</v>
       </c>
     </row>
@@ -2209,1607 +2220,1607 @@
       <c r="B7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2754</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2547.75</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2690.25</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>14825.5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>2905</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>2568</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>2566</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>7290</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>55699</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>7896.25</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>1213469</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>14027.5</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>8634.25</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>3046.5</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>3700.75</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>127671.25</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>9246</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>3911.5</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>4228.75</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>76243.75</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>7530</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>2415.75</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="3">
         <v>2920</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="3">
         <v>120667</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="3">
         <v>4104.25</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="3">
         <v>2396</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="3">
         <v>2999.75</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE7" s="3">
         <v>89485.25</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF7" s="3">
         <v>9002.5</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="3">
         <v>2518.5</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="3">
         <v>4253.5</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AI7" s="3">
         <v>90784.75</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AJ7" s="3">
         <v>6008.25</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AK7" s="3">
         <v>7872</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="3">
         <v>7425.5</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AM7" s="3">
         <v>615002</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="3">
         <v>931946.75</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AO7" s="3">
         <v>690493</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AP7" s="3">
         <v>114917.75</v>
       </c>
-      <c r="AQ7" s="4">
+      <c r="AQ7" s="3">
         <v>63739.25</v>
       </c>
-      <c r="AR7" s="4">
+      <c r="AR7" s="3">
         <v>382163.5</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AS7" s="3">
         <v>3602.5</v>
       </c>
-      <c r="AT7" s="4">
+      <c r="AT7" s="3">
         <v>4309</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AU7" s="3">
         <v>4197.5</v>
       </c>
-      <c r="AV7" s="4">
+      <c r="AV7" s="3">
         <v>4803</v>
       </c>
-      <c r="AW7" s="4">
+      <c r="AW7" s="3">
         <v>4825</v>
       </c>
-      <c r="AX7" s="4">
+      <c r="AX7" s="3">
         <v>5515</v>
       </c>
-      <c r="AY7" s="4">
+      <c r="AY7" s="3">
         <v>2809.25</v>
       </c>
-      <c r="AZ7" s="4">
+      <c r="AZ7" s="3">
         <v>3401</v>
       </c>
-      <c r="BA7" s="4">
+      <c r="BA7" s="3">
         <v>3479</v>
       </c>
-      <c r="BB7" s="4">
+      <c r="BB7" s="3">
         <v>4709.25</v>
       </c>
-      <c r="BC7" s="4">
+      <c r="BC7" s="3">
         <v>10113.75</v>
       </c>
-      <c r="BD7" s="4">
+      <c r="BD7" s="3">
         <v>11898</v>
       </c>
-      <c r="BE7" s="4">
+      <c r="BE7" s="3">
         <v>2881.5</v>
       </c>
-      <c r="BF7" s="4">
+      <c r="BF7" s="3">
         <v>3132</v>
       </c>
-      <c r="BG7" s="4">
+      <c r="BG7" s="3">
         <v>3430.75</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3109.75</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>35811.75</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>1392652.25</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>60461</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>2658</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>14968.5</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>1140051</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>55261</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>40232</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>138435.5</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <v>3002552.75</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>83817</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <v>4691.25</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>125765.5</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="9">
         <v>2433363.5</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="9">
         <v>276083.75</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="9">
         <v>5389.5</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>114519.25</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>2260260.25</v>
       </c>
-      <c r="W8" s="10">
+      <c r="W8" s="9">
         <v>266646.25</v>
       </c>
-      <c r="X8" s="10">
+      <c r="X8" s="9">
         <v>3951.75</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="9">
         <v>131607</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="9">
         <v>2384942</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="9">
         <v>281072</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="9">
         <v>4310.5</v>
       </c>
-      <c r="AC8" s="10">
+      <c r="AC8" s="9">
         <v>233576.5</v>
       </c>
-      <c r="AD8" s="10">
+      <c r="AD8" s="9">
         <v>2590487</v>
       </c>
-      <c r="AE8" s="10">
+      <c r="AE8" s="9">
         <v>308204</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AF8" s="9">
         <v>4072.5</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AG8" s="9">
         <v>115264.25</v>
       </c>
-      <c r="AH8" s="10">
+      <c r="AH8" s="9">
         <v>2413744.25</v>
       </c>
-      <c r="AI8" s="10">
+      <c r="AI8" s="9">
         <v>304342.5</v>
       </c>
-      <c r="AJ8" s="10">
+      <c r="AJ8" s="9">
         <v>1773681.5</v>
       </c>
-      <c r="AK8" s="10">
+      <c r="AK8" s="9">
         <v>1990045.25</v>
       </c>
-      <c r="AL8" s="10">
+      <c r="AL8" s="9">
         <v>1212317.75</v>
       </c>
-      <c r="AM8" s="10">
+      <c r="AM8" s="9">
         <v>1793858</v>
       </c>
-      <c r="AN8" s="10">
+      <c r="AN8" s="9">
         <v>2177472.25</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AO8" s="9">
         <v>1518916</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AP8" s="9">
         <v>2451893.25</v>
       </c>
-      <c r="AQ8" s="10">
+      <c r="AQ8" s="9">
         <v>2629044</v>
       </c>
-      <c r="AR8" s="10">
+      <c r="AR8" s="9">
         <v>1851134.5</v>
       </c>
-      <c r="AS8" s="10">
+      <c r="AS8" s="9">
         <v>2824745.75</v>
       </c>
-      <c r="AT8" s="10">
+      <c r="AT8" s="9">
         <v>3178274.25</v>
       </c>
-      <c r="AU8" s="10">
+      <c r="AU8" s="9">
         <v>2336821.75</v>
       </c>
-      <c r="AV8" s="10">
+      <c r="AV8" s="9">
         <v>2717924</v>
       </c>
-      <c r="AW8" s="10">
+      <c r="AW8" s="9">
         <v>3118937.5</v>
       </c>
-      <c r="AX8" s="10">
+      <c r="AX8" s="9">
         <v>2309996</v>
       </c>
-      <c r="AY8" s="10">
+      <c r="AY8" s="9">
         <v>2844352.5</v>
       </c>
-      <c r="AZ8" s="10">
+      <c r="AZ8" s="9">
         <v>3095400.5</v>
       </c>
-      <c r="BA8" s="10">
+      <c r="BA8" s="9">
         <v>2302414</v>
       </c>
-      <c r="BB8" s="10">
+      <c r="BB8" s="9">
         <v>3019393</v>
       </c>
-      <c r="BC8" s="10">
+      <c r="BC8" s="9">
         <v>3507529.25</v>
       </c>
-      <c r="BD8" s="10">
+      <c r="BD8" s="9">
         <v>2389621.5</v>
       </c>
-      <c r="BE8" s="10">
+      <c r="BE8" s="9">
         <v>2864051.5</v>
       </c>
-      <c r="BF8" s="10">
+      <c r="BF8" s="9">
         <v>3286386.5</v>
       </c>
-      <c r="BG8" s="10">
+      <c r="BG8" s="9">
         <v>2398920.25</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>3374.75</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>83646.5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>1630087.5</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>147252.75</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>2858.5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>49359.75</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>1268946.5</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>148867</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>35806.5</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>197119.25</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>2735790</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>223350.75</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>4947</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>188370.25</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
         <v>2580937.25</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="9">
         <v>529961</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="9">
         <v>5707.75</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>166285.5</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>2677715</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="9">
         <v>539760</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="9">
         <v>4142.25</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="9">
         <v>186271.5</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="9">
         <v>2586064</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="9">
         <v>534990</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="9">
         <v>5539</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="9">
         <v>238602.25</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AD9" s="9">
         <v>2941819.75</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="9">
         <v>630141.25</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="9">
         <v>4164</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="9">
         <v>155465</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AH9" s="9">
         <v>2662697.75</v>
       </c>
-      <c r="AI9" s="10">
+      <c r="AI9" s="9">
         <v>591717.5</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AJ9" s="9">
         <v>1986407.25</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AK9" s="9">
         <v>2279066</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AL9" s="9">
         <v>1545205.75</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AM9" s="9">
         <v>2086669.75</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AN9" s="9">
         <v>2430692</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AO9" s="9">
         <v>1774941.5</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AP9" s="9">
         <v>2798883.75</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AQ9" s="9">
         <v>3040764</v>
       </c>
-      <c r="AR9" s="10">
+      <c r="AR9" s="9">
         <v>2235437.25</v>
       </c>
-      <c r="AS9" s="10">
+      <c r="AS9" s="9">
         <v>2836103.25</v>
       </c>
-      <c r="AT9" s="10">
+      <c r="AT9" s="9">
         <v>3170642.75</v>
       </c>
-      <c r="AU9" s="10">
+      <c r="AU9" s="9">
         <v>2597501</v>
       </c>
-      <c r="AV9" s="10">
+      <c r="AV9" s="9">
         <v>2823820.5</v>
       </c>
-      <c r="AW9" s="10">
+      <c r="AW9" s="9">
         <v>3160426.5</v>
       </c>
-      <c r="AX9" s="10">
+      <c r="AX9" s="9">
         <v>2559048.75</v>
       </c>
-      <c r="AY9" s="10">
+      <c r="AY9" s="9">
         <v>2884224</v>
       </c>
-      <c r="AZ9" s="10">
+      <c r="AZ9" s="9">
         <v>3178178.25</v>
       </c>
-      <c r="BA9" s="10">
+      <c r="BA9" s="9">
         <v>2602917</v>
       </c>
-      <c r="BB9" s="10">
+      <c r="BB9" s="9">
         <v>3326485.25</v>
       </c>
-      <c r="BC9" s="10">
+      <c r="BC9" s="9">
         <v>3645059.5</v>
       </c>
-      <c r="BD9" s="10">
+      <c r="BD9" s="9">
         <v>2899809.75</v>
       </c>
-      <c r="BE9" s="10">
+      <c r="BE9" s="9">
         <v>2988065</v>
       </c>
-      <c r="BF9" s="10">
+      <c r="BF9" s="9">
         <v>3219413</v>
       </c>
-      <c r="BG9" s="10">
+      <c r="BG9" s="9">
         <v>2660708.5</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>3518.75</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>174169.75</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>1159232</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>135366.5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>3078.25</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>148024.5</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>1167592</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>168499</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>42851.5</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>426769.5</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>2315003</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>216964.5</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>10793.5</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>447036.75</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>1964870</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>393375</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <v>11653.75</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <v>439701</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="6">
         <v>1924143.25</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <v>408966.75</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>10812.5</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="6">
         <v>476567.5</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="6">
         <v>2031800</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="6">
         <v>401926.5</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="6">
         <v>7193</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="6">
         <v>427034</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="6">
         <v>2678359</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AE10" s="6">
         <v>548779</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AF10" s="6">
         <v>11584.5</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AG10" s="6">
         <v>447083</v>
       </c>
-      <c r="AH10" s="7">
+      <c r="AH10" s="6">
         <v>2183146.5</v>
       </c>
-      <c r="AI10" s="7">
+      <c r="AI10" s="6">
         <v>462691.5</v>
       </c>
-      <c r="AJ10" s="7">
+      <c r="AJ10" s="6">
         <v>1937896</v>
       </c>
-      <c r="AK10" s="7">
+      <c r="AK10" s="6">
         <v>2156311.25</v>
       </c>
-      <c r="AL10" s="7">
+      <c r="AL10" s="6">
         <v>1548164.5</v>
       </c>
-      <c r="AM10" s="7">
+      <c r="AM10" s="6">
         <v>2103444</v>
       </c>
-      <c r="AN10" s="7">
+      <c r="AN10" s="6">
         <v>2486649.75</v>
       </c>
-      <c r="AO10" s="7">
+      <c r="AO10" s="6">
         <v>1831310</v>
       </c>
-      <c r="AP10" s="7">
+      <c r="AP10" s="6">
         <v>2708922.75</v>
       </c>
-      <c r="AQ10" s="7">
+      <c r="AQ10" s="6">
         <v>3095489.5</v>
       </c>
-      <c r="AR10" s="7">
+      <c r="AR10" s="6">
         <v>2173695.25</v>
       </c>
-      <c r="AS10" s="7">
+      <c r="AS10" s="6">
         <v>2929904.25</v>
       </c>
-      <c r="AT10" s="7">
+      <c r="AT10" s="6">
         <v>3220985</v>
       </c>
-      <c r="AU10" s="7">
+      <c r="AU10" s="6">
         <v>2559891.5</v>
       </c>
-      <c r="AV10" s="7">
+      <c r="AV10" s="6">
         <v>2841984.5</v>
       </c>
-      <c r="AW10" s="7">
+      <c r="AW10" s="6">
         <v>3133254.25</v>
       </c>
-      <c r="AX10" s="7">
+      <c r="AX10" s="6">
         <v>2524356</v>
       </c>
-      <c r="AY10" s="7">
+      <c r="AY10" s="6">
         <v>2922214.5</v>
       </c>
-      <c r="AZ10" s="7">
+      <c r="AZ10" s="6">
         <v>3361829.75</v>
       </c>
-      <c r="BA10" s="7">
+      <c r="BA10" s="6">
         <v>2502278.75</v>
       </c>
-      <c r="BB10" s="7">
+      <c r="BB10" s="6">
         <v>3395550.75</v>
       </c>
-      <c r="BC10" s="7">
+      <c r="BC10" s="6">
         <v>3810330.5</v>
       </c>
-      <c r="BD10" s="7">
+      <c r="BD10" s="6">
         <v>2941421.75</v>
       </c>
-      <c r="BE10" s="7">
+      <c r="BE10" s="6">
         <v>2959810.5</v>
       </c>
-      <c r="BF10" s="7">
+      <c r="BF10" s="6">
         <v>3390815.25</v>
       </c>
-      <c r="BG10" s="7">
+      <c r="BG10" s="6">
         <v>2596229.75</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>3245.5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>61646.25</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>1618690.75</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>152568.75</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>2946</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>36741</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>1139436</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>115234</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>43261</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>170620.75</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>2877954.75</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>239483</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>4466</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>65608.5</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>2219329.5</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>349426</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>5975.5</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>68370.75</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>2164824</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>330480.5</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <v>3706.5</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="6">
         <v>64425.5</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="6">
         <v>2360560</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>349118.75</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="6">
         <v>4234.25</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="6">
         <v>267671</v>
       </c>
-      <c r="AD11" s="7">
+      <c r="AD11" s="6">
         <v>2650625.25</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AE11" s="6">
         <v>476883.5</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AF11" s="6">
         <v>3949.25</v>
       </c>
-      <c r="AG11" s="7">
+      <c r="AG11" s="6">
         <v>57907.75</v>
       </c>
-      <c r="AH11" s="7">
+      <c r="AH11" s="6">
         <v>2369505</v>
       </c>
-      <c r="AI11" s="7">
+      <c r="AI11" s="6">
         <v>370373.25</v>
       </c>
-      <c r="AJ11" s="7">
+      <c r="AJ11" s="6">
         <v>2263623.25</v>
       </c>
-      <c r="AK11" s="7">
+      <c r="AK11" s="6">
         <v>2610597</v>
       </c>
-      <c r="AL11" s="7">
+      <c r="AL11" s="6">
         <v>1891821.5</v>
       </c>
-      <c r="AM11" s="7">
+      <c r="AM11" s="6">
         <v>2221749.75</v>
       </c>
-      <c r="AN11" s="7">
+      <c r="AN11" s="6">
         <v>2641730.25</v>
       </c>
-      <c r="AO11" s="7">
+      <c r="AO11" s="6">
         <v>1890909.25</v>
       </c>
-      <c r="AP11" s="7">
+      <c r="AP11" s="6">
         <v>3014343.5</v>
       </c>
-      <c r="AQ11" s="7">
+      <c r="AQ11" s="6">
         <v>3284410.5</v>
       </c>
-      <c r="AR11" s="7">
+      <c r="AR11" s="6">
         <v>2484455.25</v>
       </c>
-      <c r="AS11" s="7">
+      <c r="AS11" s="6">
         <v>3080276</v>
       </c>
-      <c r="AT11" s="7">
+      <c r="AT11" s="6">
         <v>3398748.25</v>
       </c>
-      <c r="AU11" s="7">
+      <c r="AU11" s="6">
         <v>2826154.25</v>
       </c>
-      <c r="AV11" s="7">
+      <c r="AV11" s="6">
         <v>3042538.5</v>
       </c>
-      <c r="AW11" s="7">
+      <c r="AW11" s="6">
         <v>3369226.25</v>
       </c>
-      <c r="AX11" s="7">
+      <c r="AX11" s="6">
         <v>2760350</v>
       </c>
-      <c r="AY11" s="7">
+      <c r="AY11" s="6">
         <v>3089443.25</v>
       </c>
-      <c r="AZ11" s="7">
+      <c r="AZ11" s="6">
         <v>3442638.75</v>
       </c>
-      <c r="BA11" s="7">
+      <c r="BA11" s="6">
         <v>2865185.25</v>
       </c>
-      <c r="BB11" s="7">
+      <c r="BB11" s="6">
         <v>3303915</v>
       </c>
-      <c r="BC11" s="7">
+      <c r="BC11" s="6">
         <v>3836312.5</v>
       </c>
-      <c r="BD11" s="7">
+      <c r="BD11" s="6">
         <v>2958500.5</v>
       </c>
-      <c r="BE11" s="7">
+      <c r="BE11" s="6">
         <v>3091995</v>
       </c>
-      <c r="BF11" s="7">
+      <c r="BF11" s="6">
         <v>3465704</v>
       </c>
-      <c r="BG11" s="7">
+      <c r="BG11" s="6">
         <v>2809223.25</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>3147</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>341193</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>1452557</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>67697</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>2905.5</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>172465.75</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>1371036.5</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>65562.5</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>36336.5</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>704544</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>2887550</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>99436</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>4424.75</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>771089.5</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <v>2422778</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <v>197059</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <v>4908.25</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>718510.5</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <v>2271864.25</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <v>192951.5</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <v>3420.5</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="6">
         <v>804071.5</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="6">
         <v>2203363</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>198164</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="6">
         <v>4196</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="6">
         <v>603168.25</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="6">
         <v>2871282</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="6">
         <v>282337</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="6">
         <v>3650</v>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="6">
         <v>739173</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="6">
         <v>2622774.25</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12" s="6">
         <v>227683</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AJ12" s="6">
         <v>2117620</v>
       </c>
-      <c r="AK12" s="7">
+      <c r="AK12" s="6">
         <v>2499762.5</v>
       </c>
-      <c r="AL12" s="7">
+      <c r="AL12" s="6">
         <v>1545126.5</v>
       </c>
-      <c r="AM12" s="7">
+      <c r="AM12" s="6">
         <v>2160722</v>
       </c>
-      <c r="AN12" s="7">
+      <c r="AN12" s="6">
         <v>2492196.5</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AO12" s="6">
         <v>1758366.5</v>
       </c>
-      <c r="AP12" s="7">
+      <c r="AP12" s="6">
         <v>2987185.5</v>
       </c>
-      <c r="AQ12" s="7">
+      <c r="AQ12" s="6">
         <v>3344315</v>
       </c>
-      <c r="AR12" s="7">
+      <c r="AR12" s="6">
         <v>2235914</v>
       </c>
-      <c r="AS12" s="7">
+      <c r="AS12" s="6">
         <v>2905670</v>
       </c>
-      <c r="AT12" s="7">
+      <c r="AT12" s="6">
         <v>3258714.5</v>
       </c>
-      <c r="AU12" s="7">
+      <c r="AU12" s="6">
         <v>2517978.5</v>
       </c>
-      <c r="AV12" s="7">
+      <c r="AV12" s="6">
         <v>2924014</v>
       </c>
-      <c r="AW12" s="7">
+      <c r="AW12" s="6">
         <v>3327254</v>
       </c>
-      <c r="AX12" s="7">
+      <c r="AX12" s="6">
         <v>2475161.5</v>
       </c>
-      <c r="AY12" s="7">
+      <c r="AY12" s="6">
         <v>3041011</v>
       </c>
-      <c r="AZ12" s="7">
+      <c r="AZ12" s="6">
         <v>3338531.75</v>
       </c>
-      <c r="BA12" s="7">
+      <c r="BA12" s="6">
         <v>2523754.5</v>
       </c>
-      <c r="BB12" s="7">
+      <c r="BB12" s="6">
         <v>3477761.5</v>
       </c>
-      <c r="BC12" s="7">
+      <c r="BC12" s="6">
         <v>3984527</v>
       </c>
-      <c r="BD12" s="7">
+      <c r="BD12" s="6">
         <v>2882926</v>
       </c>
-      <c r="BE12" s="7">
+      <c r="BE12" s="6">
         <v>3073237.25</v>
       </c>
-      <c r="BF12" s="7">
+      <c r="BF12" s="6">
         <v>3444366.25</v>
       </c>
-      <c r="BG12" s="7">
+      <c r="BG12" s="6">
         <v>2559787.5</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>3328.25</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>219240.5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>1646300</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>47392.5</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>2823</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>62058.75</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>1824143</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>36608</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>31683.25</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>340100.5</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>3270699.25</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>52610.25</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>4379.25</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>320294.5</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="6">
         <v>2495074.5</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="6">
         <v>68574.25</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <v>5264</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>272510.5</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="6">
         <v>2389324.75</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <v>62862</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="6">
         <v>3859</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="6">
         <v>360367.75</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z13" s="6">
         <v>3261754.75</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="6">
         <v>67861.5</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="6">
         <v>4948.25</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="6">
         <v>48992.25</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AD13" s="6">
         <v>2827211</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AE13" s="6">
         <v>136987</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AF13" s="6">
         <v>3588.75</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AG13" s="6">
         <v>270100.5</v>
       </c>
-      <c r="AH13" s="7">
+      <c r="AH13" s="6">
         <v>3326543.75</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AI13" s="6">
         <v>70831.5</v>
       </c>
-      <c r="AJ13" s="7">
+      <c r="AJ13" s="6">
         <v>2165802.75</v>
       </c>
-      <c r="AK13" s="7">
+      <c r="AK13" s="6">
         <v>2453318.25</v>
       </c>
-      <c r="AL13" s="7">
+      <c r="AL13" s="6">
         <v>1631610</v>
       </c>
-      <c r="AM13" s="7">
+      <c r="AM13" s="6">
         <v>2151004</v>
       </c>
-      <c r="AN13" s="7">
+      <c r="AN13" s="6">
         <v>2518187.5</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AO13" s="6">
         <v>1836693.75</v>
       </c>
-      <c r="AP13" s="7">
+      <c r="AP13" s="6">
         <v>2894627</v>
       </c>
-      <c r="AQ13" s="7">
+      <c r="AQ13" s="6">
         <v>3170333.5</v>
       </c>
-      <c r="AR13" s="7">
+      <c r="AR13" s="6">
         <v>2369708.75</v>
       </c>
-      <c r="AS13" s="7">
+      <c r="AS13" s="6">
         <v>3002825.75</v>
       </c>
-      <c r="AT13" s="7">
+      <c r="AT13" s="6">
         <v>3102332.5</v>
       </c>
-      <c r="AU13" s="7">
+      <c r="AU13" s="6">
         <v>2676823.25</v>
       </c>
-      <c r="AV13" s="7">
+      <c r="AV13" s="6">
         <v>2976977</v>
       </c>
-      <c r="AW13" s="7">
+      <c r="AW13" s="6">
         <v>3179118.5</v>
       </c>
-      <c r="AX13" s="7">
+      <c r="AX13" s="6">
         <v>2598383.25</v>
       </c>
-      <c r="AY13" s="7">
+      <c r="AY13" s="6">
         <v>3005373.5</v>
       </c>
-      <c r="AZ13" s="7">
+      <c r="AZ13" s="6">
         <v>3396536.5</v>
       </c>
-      <c r="BA13" s="7">
+      <c r="BA13" s="6">
         <v>2734156</v>
       </c>
-      <c r="BB13" s="7">
+      <c r="BB13" s="6">
         <v>3507787</v>
       </c>
-      <c r="BC13" s="7">
+      <c r="BC13" s="6">
         <v>3853073.25</v>
       </c>
-      <c r="BD13" s="7">
+      <c r="BD13" s="6">
         <v>3161037</v>
       </c>
-      <c r="BE13" s="7">
+      <c r="BE13" s="6">
         <v>3040993</v>
       </c>
-      <c r="BF13" s="7">
+      <c r="BF13" s="6">
         <v>3370886.75</v>
       </c>
-      <c r="BG13" s="7">
+      <c r="BG13" s="6">
         <v>2786923</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>3886.5</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>19960</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>778955.75</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>53177.5</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>2866</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>9601.75</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>541997.25</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>30737.75</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>48802</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>113194.5</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>2366636</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>93485</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <v>3844</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <v>82058</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="9">
         <v>2506870</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="9">
         <v>269018</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="9">
         <v>4631</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="9">
         <v>68865.5</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="9">
         <v>2108419.25</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="9">
         <v>246903.75</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="9">
         <v>3235</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="9">
         <v>89072.25</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="9">
         <v>2380143</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="9">
         <v>277554.5</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="9">
         <v>3652</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="9">
         <v>159852.25</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="9">
         <v>2514178</v>
       </c>
-      <c r="AE14" s="10">
+      <c r="AE14" s="9">
         <v>353105.5</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14" s="9">
         <v>3511.5</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14" s="9">
         <v>70406.25</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AH14" s="9">
         <v>2437097.75</v>
       </c>
-      <c r="AI14" s="10">
+      <c r="AI14" s="9">
         <v>315837</v>
       </c>
-      <c r="AJ14" s="10">
+      <c r="AJ14" s="9">
         <v>1417862.5</v>
       </c>
-      <c r="AK14" s="10">
+      <c r="AK14" s="9">
         <v>1703324.25</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AL14" s="9">
         <v>956285.75</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AM14" s="9">
         <v>1374936</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AN14" s="9">
         <v>1803672</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AO14" s="9">
         <v>1200375.25</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AP14" s="9">
         <v>2166035.5</v>
       </c>
-      <c r="AQ14" s="10">
+      <c r="AQ14" s="9">
         <v>2391847.5</v>
       </c>
-      <c r="AR14" s="10">
+      <c r="AR14" s="9">
         <v>1553737.75</v>
       </c>
-      <c r="AS14" s="10">
+      <c r="AS14" s="9">
         <v>2563089.75</v>
       </c>
-      <c r="AT14" s="10">
+      <c r="AT14" s="9">
         <v>3051965.5</v>
       </c>
-      <c r="AU14" s="10">
+      <c r="AU14" s="9">
         <v>2026736</v>
       </c>
-      <c r="AV14" s="10">
+      <c r="AV14" s="9">
         <v>2512870.5</v>
       </c>
-      <c r="AW14" s="10">
+      <c r="AW14" s="9">
         <v>3102295.75</v>
       </c>
-      <c r="AX14" s="10">
+      <c r="AX14" s="9">
         <v>2040225.5</v>
       </c>
-      <c r="AY14" s="10">
+      <c r="AY14" s="9">
         <v>2585772.5</v>
       </c>
-      <c r="AZ14" s="10">
+      <c r="AZ14" s="9">
         <v>3108177</v>
       </c>
-      <c r="BA14" s="10">
+      <c r="BA14" s="9">
         <v>2013040</v>
       </c>
-      <c r="BB14" s="10">
+      <c r="BB14" s="9">
         <v>2795404</v>
       </c>
-      <c r="BC14" s="10">
+      <c r="BC14" s="9">
         <v>3345603.25</v>
       </c>
-      <c r="BD14" s="10">
+      <c r="BD14" s="9">
         <v>2130468</v>
       </c>
-      <c r="BE14" s="10">
+      <c r="BE14" s="9">
         <v>2766151.5</v>
       </c>
-      <c r="BF14" s="10">
+      <c r="BF14" s="9">
         <v>3236992</v>
       </c>
-      <c r="BG14" s="10">
+      <c r="BG14" s="9">
         <v>2119366</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>3992.5</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>58824.5</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>1332086.5</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>37419.25</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>2726</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>19442.25</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>1261454.5</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>35708</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>32026</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>212441</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>2779099.25</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>85424.25</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <v>4671</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <v>182920.25</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="9">
         <v>2493955.5</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="9">
         <v>162836</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="9">
         <v>5222</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="9">
         <v>166124.5</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15" s="9">
         <v>2527783.75</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="9">
         <v>160944</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="9">
         <v>3561.75</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="9">
         <v>189507.75</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="9">
         <v>2531080</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AA15" s="9">
         <v>155953.5</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="9">
         <v>5232.25</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC15" s="9">
         <v>320009.5</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AD15" s="9">
         <v>2914012.75</v>
       </c>
-      <c r="AE15" s="10">
+      <c r="AE15" s="9">
         <v>215440</v>
       </c>
-      <c r="AF15" s="10">
+      <c r="AF15" s="9">
         <v>3640</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AG15" s="9">
         <v>177701</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AH15" s="9">
         <v>2322547.75</v>
       </c>
-      <c r="AI15" s="10">
+      <c r="AI15" s="9">
         <v>156479.25</v>
       </c>
-      <c r="AJ15" s="10">
+      <c r="AJ15" s="9">
         <v>2021914</v>
       </c>
-      <c r="AK15" s="10">
+      <c r="AK15" s="9">
         <v>2351942.25</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AL15" s="9">
         <v>1506366.5</v>
       </c>
-      <c r="AM15" s="10">
+      <c r="AM15" s="9">
         <v>2166613</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AN15" s="9">
         <v>2440467.5</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AO15" s="9">
         <v>1880589</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AP15" s="9">
         <v>2795901</v>
       </c>
-      <c r="AQ15" s="10">
+      <c r="AQ15" s="9">
         <v>3116821.5</v>
       </c>
-      <c r="AR15" s="10">
+      <c r="AR15" s="9">
         <v>2192476.5</v>
       </c>
-      <c r="AS15" s="10">
+      <c r="AS15" s="9">
         <v>2793653.5</v>
       </c>
-      <c r="AT15" s="10">
+      <c r="AT15" s="9">
         <v>3089685</v>
       </c>
-      <c r="AU15" s="10">
+      <c r="AU15" s="9">
         <v>2353017.5</v>
       </c>
-      <c r="AV15" s="10">
+      <c r="AV15" s="9">
         <v>2705573</v>
       </c>
-      <c r="AW15" s="10">
+      <c r="AW15" s="9">
         <v>3139669.75</v>
       </c>
-      <c r="AX15" s="10">
+      <c r="AX15" s="9">
         <v>2263543.25</v>
       </c>
-      <c r="AY15" s="10">
+      <c r="AY15" s="9">
         <v>2824126</v>
       </c>
-      <c r="AZ15" s="10">
+      <c r="AZ15" s="9">
         <v>3111647.5</v>
       </c>
-      <c r="BA15" s="10">
+      <c r="BA15" s="9">
         <v>2269952</v>
       </c>
-      <c r="BB15" s="10">
+      <c r="BB15" s="9">
         <v>3128182.25</v>
       </c>
-      <c r="BC15" s="10">
+      <c r="BC15" s="9">
         <v>3503427.5</v>
       </c>
-      <c r="BD15" s="10">
+      <c r="BD15" s="9">
         <v>2644188.25</v>
       </c>
-      <c r="BE15" s="10">
+      <c r="BE15" s="9">
         <v>2849042.75</v>
       </c>
-      <c r="BF15" s="10">
+      <c r="BF15" s="9">
         <v>3239558.5</v>
       </c>
-      <c r="BG15" s="10">
+      <c r="BG15" s="9">
         <v>2378414.25</v>
       </c>
     </row>
@@ -3817,175 +3828,175 @@
       <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>3165.75</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>2587</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>2726.5</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>19198</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>2584.25</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>2586.5</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>2497</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>16302</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>57233.5</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>7813.5</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>1731131.5</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>17743.5</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>3373.5</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>2998.5</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>3818</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>241096</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>3985.5</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>3902.5</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>4739.25</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <v>149848.75</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>2633.5</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>2417.5</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="3">
         <v>2883.25</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="3">
         <v>172736.5</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AB16" s="3">
         <v>2973.25</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AC16" s="3">
         <v>2426.5</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AD16" s="3">
         <v>6839.25</v>
       </c>
-      <c r="AE16" s="4">
+      <c r="AE16" s="3">
         <v>85631.75</v>
       </c>
-      <c r="AF16" s="4">
+      <c r="AF16" s="3">
         <v>2800.75</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AG16" s="3">
         <v>2414.25</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AH16" s="3">
         <v>4033</v>
       </c>
-      <c r="AI16" s="4">
+      <c r="AI16" s="3">
         <v>156668.25</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AJ16" s="3">
         <v>429461.25</v>
       </c>
-      <c r="AK16" s="4">
+      <c r="AK16" s="3">
         <v>378176.5</v>
       </c>
-      <c r="AL16" s="4">
+      <c r="AL16" s="3">
         <v>373821.5</v>
       </c>
-      <c r="AM16" s="4">
+      <c r="AM16" s="3">
         <v>875698.25</v>
       </c>
-      <c r="AN16" s="4">
+      <c r="AN16" s="3">
         <v>1268481</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="AO16" s="3">
         <v>869646.75</v>
       </c>
-      <c r="AP16" s="4">
+      <c r="AP16" s="3">
         <v>1072254.75</v>
       </c>
-      <c r="AQ16" s="4">
+      <c r="AQ16" s="3">
         <v>1155007.75</v>
       </c>
-      <c r="AR16" s="4">
+      <c r="AR16" s="3">
         <v>933862</v>
       </c>
-      <c r="AS16" s="4">
+      <c r="AS16" s="3">
         <v>1539275.5</v>
       </c>
-      <c r="AT16" s="4">
+      <c r="AT16" s="3">
         <v>1938206.5</v>
       </c>
-      <c r="AU16" s="4">
+      <c r="AU16" s="3">
         <v>1013503.5</v>
       </c>
-      <c r="AV16" s="4">
+      <c r="AV16" s="3">
         <v>1489378.75</v>
       </c>
-      <c r="AW16" s="4">
+      <c r="AW16" s="3">
         <v>1849147.5</v>
       </c>
-      <c r="AX16" s="4">
+      <c r="AX16" s="3">
         <v>1069225</v>
       </c>
-      <c r="AY16" s="4">
+      <c r="AY16" s="3">
         <v>1460679</v>
       </c>
-      <c r="AZ16" s="4">
+      <c r="AZ16" s="3">
         <v>1750507.5</v>
       </c>
-      <c r="BA16" s="4">
+      <c r="BA16" s="3">
         <v>907875.75</v>
       </c>
-      <c r="BB16" s="4">
+      <c r="BB16" s="3">
         <v>1673389.25</v>
       </c>
-      <c r="BC16" s="4">
+      <c r="BC16" s="3">
         <v>2065290.5</v>
       </c>
-      <c r="BD16" s="4">
+      <c r="BD16" s="3">
         <v>1297098</v>
       </c>
-      <c r="BE16" s="4">
+      <c r="BE16" s="3">
         <v>1619745.5</v>
       </c>
-      <c r="BF16" s="4">
+      <c r="BF16" s="3">
         <v>1991440.75</v>
       </c>
-      <c r="BG16" s="4">
+      <c r="BG16" s="3">
         <v>1048840.5</v>
       </c>
     </row>
@@ -3993,175 +4004,175 @@
       <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>2905.5</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>2705.5</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>2661</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>14855</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>2637.75</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>2543</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>2543.25</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>13404.5</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>51624</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>7451.75</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>1424618.75</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>59380.75</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>4221.75</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>3127.5</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>3564.25</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>271859</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>4976</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>3897.5</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>4203</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>194155.5</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="3">
         <v>3320.5</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>2511</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="3">
         <v>2754.5</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="3">
         <v>284140.75</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB17" s="3">
         <v>3331</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AC17" s="3">
         <v>2220.75</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AD17" s="3">
         <v>3580</v>
       </c>
-      <c r="AE17" s="4">
+      <c r="AE17" s="3">
         <v>87025.25</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AF17" s="3">
         <v>3527.5</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AG17" s="3">
         <v>2358.25</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AH17" s="3">
         <v>4047.5</v>
       </c>
-      <c r="AI17" s="4">
+      <c r="AI17" s="3">
         <v>246741.5</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AJ17" s="3">
         <v>562378.5</v>
       </c>
-      <c r="AK17" s="4">
+      <c r="AK17" s="3">
         <v>495692.5</v>
       </c>
-      <c r="AL17" s="4">
+      <c r="AL17" s="3">
         <v>397535</v>
       </c>
-      <c r="AM17" s="4">
+      <c r="AM17" s="3">
         <v>898182</v>
       </c>
-      <c r="AN17" s="4">
+      <c r="AN17" s="3">
         <v>1232182</v>
       </c>
-      <c r="AO17" s="4">
+      <c r="AO17" s="3">
         <v>834577.5</v>
       </c>
-      <c r="AP17" s="4">
+      <c r="AP17" s="3">
         <v>1211791</v>
       </c>
-      <c r="AQ17" s="4">
+      <c r="AQ17" s="3">
         <v>1185107.5</v>
       </c>
-      <c r="AR17" s="4">
+      <c r="AR17" s="3">
         <v>933921.5</v>
       </c>
-      <c r="AS17" s="4">
+      <c r="AS17" s="3">
         <v>1673461.5</v>
       </c>
-      <c r="AT17" s="4">
+      <c r="AT17" s="3">
         <v>1891654.75</v>
       </c>
-      <c r="AU17" s="4">
+      <c r="AU17" s="3">
         <v>1097493.75</v>
       </c>
-      <c r="AV17" s="4">
+      <c r="AV17" s="3">
         <v>1627120.25</v>
       </c>
-      <c r="AW17" s="4">
+      <c r="AW17" s="3">
         <v>1888572.25</v>
       </c>
-      <c r="AX17" s="4">
+      <c r="AX17" s="3">
         <v>1042176</v>
       </c>
-      <c r="AY17" s="4">
+      <c r="AY17" s="3">
         <v>1566553</v>
       </c>
-      <c r="AZ17" s="4">
+      <c r="AZ17" s="3">
         <v>1806403</v>
       </c>
-      <c r="BA17" s="4">
+      <c r="BA17" s="3">
         <v>1021919</v>
       </c>
-      <c r="BB17" s="4">
+      <c r="BB17" s="3">
         <v>1770189.5</v>
       </c>
-      <c r="BC17" s="4">
+      <c r="BC17" s="3">
         <v>1982923</v>
       </c>
-      <c r="BD17" s="4">
+      <c r="BD17" s="3">
         <v>1316404</v>
       </c>
-      <c r="BE17" s="4">
+      <c r="BE17" s="3">
         <v>1721444</v>
       </c>
-      <c r="BF17" s="4">
+      <c r="BF17" s="3">
         <v>1946711.75</v>
       </c>
-      <c r="BG17" s="4">
+      <c r="BG17" s="3">
         <v>1097036.5</v>
       </c>
     </row>
